--- a/CashFlow/PTC_cashflow.xlsx
+++ b/CashFlow/PTC_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-18224000.0</v>
+        <v>71723000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>19205000.0</v>
+        <v>119000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>-8698000.0</v>
+        <v>73478000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>24112000.0</v>
+        <v>71898000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>40600000.0</v>
+        <v>50448000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>25712000.0</v>
